--- a/Testfall hotell vue.xlsx
+++ b/Testfall hotell vue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKringberg\iCloudDrive\3. Studier\Nackademin\Testautomatisering\Automation-MarcusKringberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1623A87F-E3AD-4636-AB55-9886ECCFB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C32A9-84FA-41A1-8A94-3C3406AA89FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Test-envirionment</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Klicka på "Logout"</t>
   </si>
   <si>
-    <t>Klicka på "Bills"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fliken "Bills" ska öppnas.  </t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>En rullista med allternativen "Edit " och "Delete" ska visas</t>
   </si>
   <si>
-    <t>Räkningen skall raderas</t>
-  </si>
-  <si>
     <t>Klicka på "Delete"</t>
   </si>
   <si>
@@ -235,6 +229,21 @@
   </si>
   <si>
     <t>Funktion: Radera hotellrum</t>
+  </si>
+  <si>
+    <t>Klicka på fliken "Rooms"</t>
+  </si>
+  <si>
+    <t>En sida med skapade hotellrum ska öppnas</t>
+  </si>
+  <si>
+    <t>Funktion: Radera räkning</t>
+  </si>
+  <si>
+    <t>Klicka på fliken  "Bills"</t>
+  </si>
+  <si>
+    <t>Räkningen ska rederas</t>
   </si>
 </sst>
 </file>
@@ -278,9 +287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +602,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -746,7 +756,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -761,152 +771,157 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>64</v>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>44</v>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>65</v>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
@@ -914,6 +929,83 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
         <v>17</v>
       </c>
     </row>
